--- a/test/endpoints/templates/get-search-estimate-tests.xlsx
+++ b/test/endpoints/templates/get-search-estimate-tests.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +420,7 @@
     <col min="15" max="15" customWidth="1" width="20"/>
     <col min="16" max="16" customWidth="1" width="20"/>
     <col min="17" max="17" customWidth="1" width="20"/>
+    <col min="18" max="18" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,30 +449,33 @@
         <v>tags</v>
       </c>
       <c r="I1" t="str">
+        <v>param:scope</v>
+      </c>
+      <c r="J1" t="str">
         <v>param:q</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>param:mayChangeScope</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>param:page</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>param:pageLength</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>param:pageWith</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>param:sort</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>param:filterResults</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>param:facetsSoon</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>param:synonymsEnabled</v>
       </c>
     </row>
@@ -501,43 +505,102 @@
         <v>get-search-estimate,functional</v>
       </c>
       <c r="I2" t="str">
+        <v>work</v>
+      </c>
+      <c r="J2" t="str">
         <v>test query</v>
       </c>
-      <c r="J2" t="str">
-        <v>true</v>
-      </c>
       <c r="K2" t="str">
+        <v>true</v>
+      </c>
+      <c r="L2" t="str">
         <v>1</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>20</v>
-      </c>
-      <c r="M2" t="str">
-        <v>example</v>
       </c>
       <c r="N2" t="str">
         <v>example</v>
       </c>
       <c r="O2" t="str">
-        <v>true</v>
+        <v>example</v>
       </c>
       <c r="P2" t="str">
         <v>true</v>
       </c>
       <c r="Q2" t="str">
+        <v>true</v>
+      </c>
+      <c r="R2" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>get-search-estimate - Missing Required Param</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Test GET /api/search-estimate/:scope with missing required parameters</v>
+      </c>
+      <c r="C3" t="str">
+        <v>true</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3" t="str">
+        <v>get-search-estimate,validation</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>test query</v>
+      </c>
+      <c r="K3" t="str">
+        <v>true</v>
+      </c>
+      <c r="L3" t="str">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N3" t="str">
+        <v>example</v>
+      </c>
+      <c r="O3" t="str">
+        <v>example</v>
+      </c>
+      <c r="P3" t="str">
+        <v>true</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>true</v>
+      </c>
+      <c r="R3" t="str">
         <v>true</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -662,114 +725,127 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>param:q</v>
+        <v>param:scope</v>
       </c>
       <c r="B18" t="str">
-        <v>Search query (string or JSON object) (string) (optional)</v>
+        <v>Search scope (work, person, place, concept, event, etc.) (string) (REQUIRED - highlighted in yellow)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>param:mayChangeScope</v>
+        <v>param:q</v>
       </c>
       <c r="B19" t="str">
-        <v>mayChangeScope parameter (boolean) (optional)</v>
+        <v>Search query (string or JSON object) (string) (optional)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>param:page</v>
+        <v>param:mayChangeScope</v>
       </c>
       <c r="B20" t="str">
-        <v>Page number for pagination (1-based) (integer) (optional)</v>
+        <v>mayChangeScope parameter (boolean) (optional)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>param:pageLength</v>
+        <v>param:page</v>
       </c>
       <c r="B21" t="str">
-        <v>Number of results per page (integer) (optional)</v>
+        <v>Page number for pagination (1-based) (integer) (optional)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>param:pageWith</v>
+        <v>param:pageLength</v>
       </c>
       <c r="B22" t="str">
-        <v>pageWith parameter (string) (optional)</v>
+        <v>Number of results per page (integer) (optional)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>param:sort</v>
+        <v>param:pageWith</v>
       </c>
       <c r="B23" t="str">
-        <v>Sort order for results (string) (optional)</v>
+        <v>pageWith parameter (string) (optional)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>param:filterResults</v>
+        <v>param:sort</v>
       </c>
       <c r="B24" t="str">
-        <v>filterResults parameter (boolean) (optional)</v>
+        <v>Sort order for results (string) (optional)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>param:facetsSoon</v>
+        <v>param:filterResults</v>
       </c>
       <c r="B25" t="str">
-        <v>facetsSoon parameter (boolean) (optional)</v>
+        <v>filterResults parameter (boolean) (optional)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>param:synonymsEnabled</v>
+        <v>param:facetsSoon</v>
       </c>
       <c r="B26" t="str">
-        <v>synonymsEnabled parameter (boolean) (optional)</v>
+        <v>facetsSoon parameter (boolean) (optional)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>param:synonymsEnabled</v>
+      </c>
+      <c r="B27" t="str">
+        <v>synonymsEnabled parameter (boolean) (optional)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Endpoint-Specific Notes:</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>• Method: GET</v>
+        <v>Endpoint-Specific Notes:</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>• Path: /api/search-estimate/:scope</v>
+        <v>• Method: GET</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>• Description: Get estimated count of search results for a given scope</v>
+        <v>• Path: /api/search-estimate/:scope</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>• Optional parameters: q, mayChangeScope, page, pageLength, pageWith, sort, filterResults, facetsSoon, synonymsEnabled</v>
+        <v>• Description: Get estimated count of search results for a given scope</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>• Required parameters: scope</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>• Optional parameters: q, mayChangeScope, page, pageLength, pageWith, sort, filterResults, facetsSoon, synonymsEnabled</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
         <v>• Search queries can be strings or complex JSON objects</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B35"/>
   </ignoredErrors>
 </worksheet>
 </file>